--- a/src/main/java/com/konnect/testdata/Groups and Project Creation.xlsx
+++ b/src/main/java/com/konnect/testdata/Groups and Project Creation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9900" windowHeight="2805" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9900" windowHeight="2805" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewGroups" sheetId="1" r:id="rId1"/>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,16 +707,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/com/konnect/testdata/Groups and Project Creation.xlsx
+++ b/src/main/java/com/konnect/testdata/Groups and Project Creation.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9900" windowHeight="2805" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9900" windowHeight="2805" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewGroups" sheetId="1" r:id="rId1"/>
     <sheet name="KonnectionsUsers" sheetId="9" r:id="rId2"/>
-    <sheet name="Logins" sheetId="10" r:id="rId3"/>
-    <sheet name="ExistingGroups" sheetId="2" r:id="rId4"/>
-    <sheet name="NewProject" sheetId="3" r:id="rId5"/>
-    <sheet name="ProjectLinksCreation" sheetId="7" r:id="rId6"/>
-    <sheet name="ProjectTaskCreation" sheetId="8" r:id="rId7"/>
-    <sheet name="ProjectNotesCreation" sheetId="6" r:id="rId8"/>
+    <sheet name="MyNotesCreation" sheetId="11" r:id="rId3"/>
+    <sheet name="Logins" sheetId="10" r:id="rId4"/>
+    <sheet name="ExistingGroups" sheetId="2" r:id="rId5"/>
+    <sheet name="NewProject" sheetId="3" r:id="rId6"/>
+    <sheet name="ProjectLinksCreation" sheetId="7" r:id="rId7"/>
+    <sheet name="ProjectTaskCreation" sheetId="8" r:id="rId8"/>
+    <sheet name="ProjectNotesCreation" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
   <si>
     <t>Groupname</t>
   </si>
@@ -224,6 +225,36 @@
   </si>
   <si>
     <t>pwd1</t>
+  </si>
+  <si>
+    <t>SourceNote</t>
+  </si>
+  <si>
+    <t>https://gtdataqa.ikonnectplus.com/</t>
+  </si>
+  <si>
+    <t>My Notes</t>
+  </si>
+  <si>
+    <t>Content Portal</t>
+  </si>
+  <si>
+    <t>Konnectplus3</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>ExistingTag</t>
+  </si>
+  <si>
+    <t>CreateNewMyNotesTag</t>
+  </si>
+  <si>
+    <t>Konnectplus33</t>
+  </si>
+  <si>
+    <t>GTKonnect14</t>
   </si>
 </sst>
 </file>
@@ -247,7 +278,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +300,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -339,6 +376,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -679,7 +720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -725,6 +766,69 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -760,7 +864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -802,12 +906,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -920,7 +1024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -1051,7 +1155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>

--- a/src/main/java/com/konnect/testdata/Groups and Project Creation.xlsx
+++ b/src/main/java/com/konnect/testdata/Groups and Project Creation.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9900" windowHeight="2805" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9900" windowHeight="2805" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NewGroups" sheetId="1" r:id="rId1"/>
     <sheet name="KonnectionsUsers" sheetId="9" r:id="rId2"/>
     <sheet name="MyNotesCreation" sheetId="11" r:id="rId3"/>
-    <sheet name="Logins" sheetId="10" r:id="rId4"/>
-    <sheet name="ExistingGroups" sheetId="2" r:id="rId5"/>
-    <sheet name="NewProject" sheetId="3" r:id="rId6"/>
-    <sheet name="ProjectLinksCreation" sheetId="7" r:id="rId7"/>
-    <sheet name="ProjectTaskCreation" sheetId="8" r:id="rId8"/>
-    <sheet name="ProjectNotesCreation" sheetId="6" r:id="rId9"/>
+    <sheet name="Chats" sheetId="12" r:id="rId4"/>
+    <sheet name="MyLinksCreation" sheetId="13" r:id="rId5"/>
+    <sheet name="MyTasksCreation" sheetId="14" r:id="rId6"/>
+    <sheet name="Logins" sheetId="10" r:id="rId7"/>
+    <sheet name="ExistingGroups" sheetId="2" r:id="rId8"/>
+    <sheet name="NewProject" sheetId="3" r:id="rId9"/>
+    <sheet name="ProjectLinksCreation" sheetId="7" r:id="rId10"/>
+    <sheet name="ProjectTaskCreation" sheetId="8" r:id="rId11"/>
+    <sheet name="ProjectNotesCreation" sheetId="6" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="107">
   <si>
     <t>Groupname</t>
   </si>
@@ -255,13 +258,106 @@
   </si>
   <si>
     <t>GTKonnect14</t>
+  </si>
+  <si>
+    <t>Contact Name</t>
+  </si>
+  <si>
+    <t>AddParticipant</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Heading</t>
+  </si>
+  <si>
+    <t>MessageatUploadFile</t>
+  </si>
+  <si>
+    <t>BoldMessage</t>
+  </si>
+  <si>
+    <t>ItalicMsg</t>
+  </si>
+  <si>
+    <t>UnderLineMsg</t>
+  </si>
+  <si>
+    <t>Sudhakar P</t>
+  </si>
+  <si>
+    <t>Vijay Hinge</t>
+  </si>
+  <si>
+    <t>Hello Team</t>
+  </si>
+  <si>
+    <t>IKONNECT PORTAL</t>
+  </si>
+  <si>
+    <t>PF the Attachment</t>
+  </si>
+  <si>
+    <t>PF the Attachment of DPS</t>
+  </si>
+  <si>
+    <t>There are many global denied party lists, each list containing several hundred to several thousand entities. These lists are constantly changing with additions made on daily basis making it hard to ensure the up to date list. GTK DPS provides an automated solution to this challenge by enabling global traders to screen their customers and suppliers against denied parties list and ensuring compliance with federal and international rules and regulations.</t>
+  </si>
+  <si>
+    <t>Denied Party Screening</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>Newtag</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Creations of all the links related to konnect portal</t>
+  </si>
+  <si>
+    <t>Links1</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>ECCN Links ECCN1</t>
+  </si>
+  <si>
+    <t>DueDate</t>
+  </si>
+  <si>
+    <t>New Tag</t>
+  </si>
+  <si>
+    <t>Automation Test on My Task Page in ikonnect portal</t>
+  </si>
+  <si>
+    <t>12/31/2018</t>
+  </si>
+  <si>
+    <t>Tasks1</t>
+  </si>
+  <si>
+    <t>GPS test in Konnect Portal1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,8 +373,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +408,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -380,6 +494,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -716,255 +834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1024,7 +894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -1155,7 +1025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1219,4 +1089,441 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/java/com/konnect/testdata/Groups and Project Creation.xlsx
+++ b/src/main/java/com/konnect/testdata/Groups and Project Creation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9900" windowHeight="2805" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9900" windowHeight="2805" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NewGroups" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="122">
   <si>
     <t>Groupname</t>
   </si>
@@ -320,9 +320,6 @@
     <t>Newtag</t>
   </si>
   <si>
-    <t>Tags</t>
-  </si>
-  <si>
     <t>Creations of all the links related to konnect portal</t>
   </si>
   <si>
@@ -350,7 +347,55 @@
     <t>Tasks1</t>
   </si>
   <si>
-    <t>GPS test in Konnect Portal1</t>
+    <t>TaskDesc</t>
+  </si>
+  <si>
+    <t>ExistingTags</t>
+  </si>
+  <si>
+    <t>Srcname</t>
+  </si>
+  <si>
+    <t>srcnotes</t>
+  </si>
+  <si>
+    <t>usrnotes</t>
+  </si>
+  <si>
+    <t>NewtaginNotes</t>
+  </si>
+  <si>
+    <t>ExistingTaginNotes</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>NewTaginLinks</t>
+  </si>
+  <si>
+    <t>ExistingTaginLinks</t>
+  </si>
+  <si>
+    <t>FTZ in Konnect Portal</t>
+  </si>
+  <si>
+    <t>ECCN in Tasks</t>
+  </si>
+  <si>
+    <t>ECCN Test</t>
+  </si>
+  <si>
+    <t>Notes in tasks</t>
+  </si>
+  <si>
+    <t>Link to the ECCN</t>
+  </si>
+  <si>
+    <t>Creation of new links against the Task</t>
+  </si>
+  <si>
+    <t>LinksinTasks</t>
   </si>
 </sst>
 </file>
@@ -380,7 +425,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,12 +459,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,7 +536,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1316,19 +1357,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>67</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1338,52 +1379,128 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="P2" s="13" t="s">
         <v>70</v>
       </c>
     </row>
